--- a/UE2/03_UE2_Implementierungspartner.xlsx
+++ b/UE2/03_UE2_Implementierungspartner.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="14370"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Implementierungspartner" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -25,12 +25,6 @@
     <t xml:space="preserve">URL </t>
   </si>
   <si>
-    <t>Muster GmbH</t>
-  </si>
-  <si>
-    <t>Best Solutions AG</t>
-  </si>
-  <si>
     <t>Land</t>
   </si>
   <si>
@@ -46,56 +40,200 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>Wels</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>German Soft XYZ</t>
-  </si>
-  <si>
-    <t>www.test.com</t>
-  </si>
-  <si>
-    <t>Kriterium A</t>
-  </si>
-  <si>
-    <t>Kriterium B</t>
-  </si>
-  <si>
-    <t>Kriterium C</t>
-  </si>
-  <si>
-    <t>Kategorie A</t>
-  </si>
-  <si>
-    <t>Kategorie B</t>
-  </si>
-  <si>
     <t>Anmerkung</t>
   </si>
   <si>
     <t>Unternehmensnsame</t>
   </si>
   <si>
-    <t>Typ</t>
-  </si>
-  <si>
-    <t>Typ, Kategorisierungen und Kriterien selbst festlegen</t>
-  </si>
-  <si>
-    <t>Grundstruktur der Tabelle nach eigenen Anforderungen verändern.</t>
-  </si>
-  <si>
-    <t>Hier die relevanten Implementierungspartner für Ihre Projekvorhaben sammeln und evaluieren.</t>
+    <t>Innovationsfeld</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>www.sab2i.com</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Mobile Banking</t>
+  </si>
+  <si>
+    <t>Fiserv Inc.</t>
+  </si>
+  <si>
+    <t>www.fiserv.com</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Monitise Group Limited</t>
+  </si>
+  <si>
+    <t>www.monitise.com</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>www.infosys.com</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>www.fisglobal.com</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>ATOS</t>
+  </si>
+  <si>
+    <t>www.atos.net</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>www.ibm.com</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>www.sap.com</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>www.oracle.com</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>www.hp.com</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>paylife</t>
+  </si>
+  <si>
+    <t>www.paylife.at</t>
+  </si>
+  <si>
+    <t>Austriacard</t>
+  </si>
+  <si>
+    <t>http://www.austriacard.at/</t>
+  </si>
+  <si>
+    <t>paybox</t>
+  </si>
+  <si>
+    <t>www.paybox.at</t>
+  </si>
+  <si>
+    <t>Maestro</t>
+  </si>
+  <si>
+    <t>www.maestrocard.com</t>
+  </si>
+  <si>
+    <t>TNS Pay</t>
+  </si>
+  <si>
+    <t>www.tnsi.com/tnspay</t>
+  </si>
+  <si>
+    <t>Neu-Isenburg</t>
+  </si>
+  <si>
+    <t>Contactless Payment</t>
+  </si>
+  <si>
+    <t>Unternehmensgröße</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>€ 8.844 Mrd.</t>
+  </si>
+  <si>
+    <t>$ 104.5 Mrd.</t>
+  </si>
+  <si>
+    <t>€ 16.22 Mrd.</t>
+  </si>
+  <si>
+    <t>$ 37.18 Mrd.</t>
+  </si>
+  <si>
+    <t>$ 120.357 Mrd.</t>
+  </si>
+  <si>
+    <t>$5,2 Mrd.</t>
+  </si>
+  <si>
+    <t>$100 Mil.</t>
+  </si>
+  <si>
+    <t>$4,48 Mrd.</t>
+  </si>
+  <si>
+    <t>$7,39 Mrd.</t>
+  </si>
+  <si>
+    <t>4 Mio €</t>
+  </si>
+  <si>
+    <t>75 Mrd €</t>
+  </si>
+  <si>
+    <t>58,65 Mio €</t>
+  </si>
+  <si>
+    <t>Beratung &amp; Planung</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Support/Hotline</t>
+  </si>
+  <si>
+    <t>Wartung/Weiterentwicklung bzw. Schulung/Weiterbildung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +264,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +307,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,7 +322,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,134 +629,564 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="11" width="16.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="48" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:13" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>750</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>750</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9">
+        <v>76418</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="10">
+        <v>434246</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10">
+        <v>64598</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="10">
+        <v>122830</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10">
+        <v>331800</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -607,8 +1195,19 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/UE2/03_UE2_Implementierungspartner.xlsx
+++ b/UE2/03_UE2_Implementierungspartner.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>Wartung/Weiterentwicklung bzw. Schulung/Weiterbildung</t>
+  </si>
+  <si>
+    <t>Marktführer im kartenbasierten bargeldlosen Zahlungsverkehr in Österreich</t>
+  </si>
+  <si>
+    <t>produziert 70 Millionen Karten pro Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 7.4 Mrd.</t>
+  </si>
+  <si>
+    <t>führend im bargeldlosen Zahlungsverkehr über das Mobiltelefon in Österreich, 100% Tochter der A1</t>
+  </si>
+  <si>
+    <t>MasterCard Europe</t>
   </si>
 </sst>
 </file>
@@ -631,26 +646,27 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" customWidth="1"/>
     <col min="11" max="11" width="39.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="49.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1">
@@ -687,7 +703,7 @@
       <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -783,6 +799,9 @@
       <c r="H4" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1054,6 +1073,9 @@
       <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="G12" s="10">
+        <v>330</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1062,6 +1084,9 @@
       </c>
       <c r="K12" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1083,6 +1108,9 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="G13" s="10">
+        <v>300</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1094,6 +1122,9 @@
       </c>
       <c r="K13" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1115,6 +1146,9 @@
       <c r="F14" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="G14" s="10">
+        <v>200</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>63</v>
       </c>
@@ -1126,6 +1160,9 @@
       </c>
       <c r="K14" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1147,6 +1184,12 @@
       <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="G15" s="10">
+        <v>6700</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1155,6 +1198,9 @@
       </c>
       <c r="K15" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1175,6 +1221,9 @@
       </c>
       <c r="F16" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5000</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>64</v>

--- a/UE2/03_UE2_Implementierungspartner.xlsx
+++ b/UE2/03_UE2_Implementierungspartner.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Implementierungspartner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Implementierungspartner!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Implementierungspartner!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>MasterCard Europe</t>
+  </si>
+  <si>
+    <t>Firmengründung</t>
+  </si>
+  <si>
+    <t>Nach Umsatz größter Softwarehersteller in Europa</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +350,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,12 +653,12 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -660,16 +669,17 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
-    <col min="13" max="13" width="49.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="60" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1">
+    <row r="1" spans="1:14" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -688,26 +698,29 @@
       <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -727,19 +740,22 @@
         <v>14</v>
       </c>
       <c r="G2" s="1">
+        <v>1989</v>
+      </c>
+      <c r="H2" s="1">
         <v>750</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -759,22 +775,25 @@
         <v>14</v>
       </c>
       <c r="G3" s="1">
+        <v>1984</v>
+      </c>
+      <c r="H3" s="1">
         <v>21000</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -794,22 +813,25 @@
         <v>14</v>
       </c>
       <c r="G4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H4" s="1">
         <v>750</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -829,22 +851,25 @@
         <v>14</v>
       </c>
       <c r="G5" s="1">
+        <v>1981</v>
+      </c>
+      <c r="H5" s="1">
         <v>160000</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -864,22 +889,25 @@
         <v>14</v>
       </c>
       <c r="G6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H6" s="1">
         <v>30000</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -898,23 +926,26 @@
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="9">
         <v>76418</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -933,23 +964,26 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="1">
+        <v>1911</v>
+      </c>
+      <c r="H8" s="10">
         <v>434246</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -968,23 +1002,29 @@
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="1">
+        <v>1972</v>
+      </c>
+      <c r="H9" s="10">
         <v>64598</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1003,23 +1043,26 @@
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="1">
+        <v>1977</v>
+      </c>
+      <c r="H10" s="10">
         <v>122830</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1038,23 +1081,26 @@
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="1">
+        <v>1939</v>
+      </c>
+      <c r="H11" s="10">
         <v>331800</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1073,23 +1119,26 @@
       <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="1">
+        <v>1980</v>
+      </c>
+      <c r="H12" s="10">
         <v>330</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1108,26 +1157,29 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="1">
+        <v>1981</v>
+      </c>
+      <c r="H13" s="10">
         <v>300</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1146,26 +1198,29 @@
       <c r="F14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H14" s="10">
         <v>200</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1184,26 +1239,29 @@
       <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="1">
+        <v>1966</v>
+      </c>
+      <c r="H15" s="10">
         <v>6700</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1222,24 +1280,29 @@
       <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="1">
+        <v>1990</v>
+      </c>
+      <c r="H16" s="10">
         <v>5000</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="L16" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:L1">
+    <filterColumn colId="6"/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>

--- a/UE2/03_UE2_Implementierungspartner.xlsx
+++ b/UE2/03_UE2_Implementierungspartner.xlsx
@@ -136,9 +136,6 @@
     <t>www.hp.com</t>
   </si>
   <si>
-    <t>Big Data</t>
-  </si>
-  <si>
     <t>paylife</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Nach Umsatz größter Softwarehersteller in Europa</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -699,22 +699,22 @@
         <v>9</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>7</v>
@@ -746,13 +746,13 @@
         <v>750</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -781,16 +781,16 @@
         <v>21000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -819,16 +819,16 @@
         <v>750</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -857,16 +857,16 @@
         <v>160000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -895,16 +895,16 @@
         <v>30000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -924,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1">
         <v>2000</v>
@@ -933,16 +933,16 @@
         <v>76418</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1">
         <v>1911</v>
@@ -971,16 +971,16 @@
         <v>434246</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1">
         <v>1972</v>
@@ -1009,19 +1009,19 @@
         <v>64598</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1">
         <v>1977</v>
@@ -1050,16 +1050,16 @@
         <v>122830</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1">
         <v>1939</v>
@@ -1088,16 +1088,16 @@
         <v>331800</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1105,10 +1105,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>1980</v>
@@ -1126,16 +1126,16 @@
         <v>330</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1143,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>1981</v>
@@ -1164,19 +1164,19 @@
         <v>300</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1184,10 +1184,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>1999</v>
@@ -1205,19 +1205,19 @@
         <v>200</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1225,10 +1225,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>1966</v>
@@ -1246,19 +1246,19 @@
         <v>6700</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1266,19 +1266,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>1990</v>
@@ -1287,16 +1287,16 @@
         <v>5000</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
